--- a/Documents/ROI.xlsx
+++ b/Documents/ROI.xlsx
@@ -48,7 +48,7 @@
     <numFmt numFmtId="165" formatCode="_ [$₪-40D]\ * #,##0.00_ ;_ [$₪-40D]\ * \-#,##0.00_ ;_ [$₪-40D]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="0\ &quot;KW&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,20 +89,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,174 +407,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H27"/>
+  <dimension ref="C5:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="6">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
         <f>IRR(C8:C28)</f>
-        <v>0.27414200349642726</v>
+        <v>0.17322656037502604</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <f>-H6</f>
         <v>-12000</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f>60*12</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>3323</v>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f>$H$11</f>
+        <v>2167.5000000000005</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f>1650*H7*H5</f>
-        <v>57750</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>3323</v>
+        <v>41250</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:C27" si="0">$H$11</f>
+        <v>2167.5000000000005</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f>H9*0.07</f>
-        <v>4042.5000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>3323</v>
-      </c>
-      <c r="G11" s="4" t="s">
+        <v>2887.5000000000005</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <f>H10-H8</f>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="H14" s="4">
+        <f>C7</f>
+        <v>0.17322656037502604</v>
+      </c>
+      <c r="I14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8000</v>
+      </c>
+      <c r="M14" s="8">
+        <f>H11</f>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="N14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="O14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P14" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="dataTable" ref="I15:K18" dt2D="1" dtr="1" r1="H6" r2="H7" ca="1"/>
+        <v>0.17322656037502604</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.21212616203141565</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.26861324211926174</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="dataTable" ref="N15:P18" dt2D="1" dtr="1" r1="H6" r2="H7"/>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.27471722243466812</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.33116144499178457</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.4149109005074112</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N16" s="2">
         <v>3322.5000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>3323</v>
+      <c r="O16" s="2">
+        <v>3322.5000000000005</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3322.5000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.32381049306679355</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.38945780267804153</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.48732628009394241</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3900</v>
+      </c>
+      <c r="O17" s="2">
+        <v>3900</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.42087552810610207</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.50535844582288458</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.63183975634173639</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5055.0000000000009</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5055.0000000000009</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5055.0000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>2167.5000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f>$H$11</f>
+        <v>2167.5000000000005</v>
       </c>
     </row>
   </sheetData>
+  <scenarios current="0" show="0">
+    <scenario name="IRR" locked="1" count="2" user="Gadi Zadikoff" comment="Created by Gadi Zadikoff on 9/15/2013_x000a_Modified by Gadi Zadikoff on 9/15/2013">
+      <inputCells r="H6" val="12000" numFmtId="164"/>
+      <inputCells r="H7" val="0.5" numFmtId="165"/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="1">
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
